--- a/server/ajax_calls.xlsx
+++ b/server/ajax_calls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10935" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="10935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribersCreation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="68">
   <si>
     <t>test1</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>subscriber</t>
+  </si>
+  <si>
+    <t>curl -iX POST -H "Content-Type: application/json" -d '{"username":"test1","password":"Unix222@"}'  http://127.0.0.1:8000/rest-auth/login/</t>
   </si>
 </sst>
 </file>
@@ -2358,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,6 +2613,11 @@
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>curl -iX POST -H "Content-Type: application/json" -d '{"company": 2,"subscriber": 10}'  http://127.0.0.1:8000/api-accounts/company-subscriber-relations-create/</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
